--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H2">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N2">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q2">
-        <v>19.09237380899378</v>
+        <v>22.79297686226078</v>
       </c>
       <c r="R2">
-        <v>171.831364280944</v>
+        <v>205.136791760347</v>
       </c>
       <c r="S2">
-        <v>0.01886659185851207</v>
+        <v>0.0141426292808292</v>
       </c>
       <c r="T2">
-        <v>0.01886659185851208</v>
+        <v>0.0141426292808292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H3">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P3">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q3">
-        <v>26.27037283577867</v>
+        <v>26.79252409514732</v>
       </c>
       <c r="R3">
-        <v>236.433355522008</v>
+        <v>241.1327168563259</v>
       </c>
       <c r="S3">
-        <v>0.02595970554641575</v>
+        <v>0.01662427589275272</v>
       </c>
       <c r="T3">
-        <v>0.02595970554641575</v>
+        <v>0.01662427589275272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H4">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N4">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O4">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P4">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q4">
-        <v>69.36238621531645</v>
+        <v>141.6802864864306</v>
       </c>
       <c r="R4">
-        <v>624.261475937848</v>
+        <v>1275.122578377876</v>
       </c>
       <c r="S4">
-        <v>0.06854212284699804</v>
+        <v>0.08791005142890838</v>
       </c>
       <c r="T4">
-        <v>0.06854212284699804</v>
+        <v>0.08791005142890837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H5">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N5">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q5">
-        <v>9.380941720490666</v>
+        <v>8.748473412599555</v>
       </c>
       <c r="R5">
-        <v>84.42847548441598</v>
+        <v>78.73626071339599</v>
       </c>
       <c r="S5">
-        <v>0.009270004896175514</v>
+        <v>0.005428269286424138</v>
       </c>
       <c r="T5">
-        <v>0.009270004896175514</v>
+        <v>0.005428269286424138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H6">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N6">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q6">
-        <v>110.014196225528</v>
+        <v>154.4702661777165</v>
       </c>
       <c r="R6">
-        <v>990.1277660297519</v>
+        <v>1390.232395599449</v>
       </c>
       <c r="S6">
-        <v>0.1087131940529864</v>
+        <v>0.09584600215514665</v>
       </c>
       <c r="T6">
-        <v>0.1087131940529864</v>
+        <v>0.09584600215514663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J7">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N7">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q7">
-        <v>52.84687016818177</v>
+        <v>61.86043916042988</v>
       </c>
       <c r="R7">
-        <v>475.6218315136359</v>
+        <v>556.743952443869</v>
       </c>
       <c r="S7">
-        <v>0.05222191543270489</v>
+        <v>0.03838328198559285</v>
       </c>
       <c r="T7">
-        <v>0.0522219154327049</v>
+        <v>0.03838328198559285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J8">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P8">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q8">
-        <v>72.71526298464468</v>
+        <v>72.71526298464465</v>
       </c>
       <c r="R8">
-        <v>654.437366861802</v>
+        <v>654.4373668618018</v>
       </c>
       <c r="S8">
-        <v>0.07185534927927142</v>
+        <v>0.0451185035488966</v>
       </c>
       <c r="T8">
-        <v>0.07185534927927142</v>
+        <v>0.0451185035488966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J9">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N9">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O9">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P9">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q9">
-        <v>191.9921040488624</v>
+        <v>384.5221620409613</v>
       </c>
       <c r="R9">
-        <v>1727.928936439762</v>
+        <v>3460.699458368652</v>
       </c>
       <c r="S9">
-        <v>0.1897216502979088</v>
+        <v>0.2385890364769515</v>
       </c>
       <c r="T9">
-        <v>0.1897216502979089</v>
+        <v>0.2385890364769515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J10">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N10">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q10">
-        <v>25.96604351652266</v>
+        <v>23.74347197196578</v>
       </c>
       <c r="R10">
-        <v>233.694391648704</v>
+        <v>213.691247747692</v>
       </c>
       <c r="S10">
-        <v>0.02565897515456279</v>
+        <v>0.01473239427954054</v>
       </c>
       <c r="T10">
-        <v>0.0256589751545628</v>
+        <v>0.01473239427954054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>13.129937</v>
       </c>
       <c r="I11">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J11">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N11">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q11">
-        <v>304.514567059682</v>
+        <v>419.2343352396247</v>
       </c>
       <c r="R11">
-        <v>2740.631103537138</v>
+        <v>3773.109017156623</v>
       </c>
       <c r="S11">
-        <v>0.3009134489594048</v>
+        <v>0.26012731118531</v>
       </c>
       <c r="T11">
-        <v>0.3009134489594048</v>
+        <v>0.26012731118531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H12">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N12">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q12">
-        <v>4.597643416387555</v>
+        <v>2.051830624601222</v>
       </c>
       <c r="R12">
-        <v>41.378790747488</v>
+        <v>18.466475621411</v>
       </c>
       <c r="S12">
-        <v>0.00454327275988583</v>
+        <v>0.001273123736585457</v>
       </c>
       <c r="T12">
-        <v>0.00454327275988583</v>
+        <v>0.001273123736585457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H13">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P13">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q13">
-        <v>6.326180700357335</v>
+        <v>2.411871068048666</v>
       </c>
       <c r="R13">
-        <v>56.935626303216</v>
+        <v>21.706839612438</v>
       </c>
       <c r="S13">
-        <v>0.006251368765921317</v>
+        <v>0.001496522310126478</v>
       </c>
       <c r="T13">
-        <v>0.006251368765921316</v>
+        <v>0.001496522310126478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H14">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N14">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O14">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P14">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q14">
-        <v>16.70318848343289</v>
+        <v>12.75410195306533</v>
       </c>
       <c r="R14">
-        <v>150.328696350896</v>
+        <v>114.786917577588</v>
       </c>
       <c r="S14">
-        <v>0.01650566048022166</v>
+        <v>0.007913689239546376</v>
       </c>
       <c r="T14">
-        <v>0.01650566048022166</v>
+        <v>0.007913689239546376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H15">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N15">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q15">
-        <v>2.259028938581333</v>
+        <v>0.7875402048164444</v>
       </c>
       <c r="R15">
-        <v>20.331260447232</v>
+        <v>7.087861843348</v>
       </c>
       <c r="S15">
-        <v>0.002232314190323721</v>
+        <v>0.0004886544319232257</v>
       </c>
       <c r="T15">
-        <v>0.002232314190323721</v>
+        <v>0.0004886544319232259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H16">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N16">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q16">
-        <v>26.492569758256</v>
+        <v>13.90545976723744</v>
       </c>
       <c r="R16">
-        <v>238.433127824304</v>
+        <v>125.149137905137</v>
       </c>
       <c r="S16">
-        <v>0.02617927482001873</v>
+        <v>0.008628085908038711</v>
       </c>
       <c r="T16">
-        <v>0.02617927482001873</v>
+        <v>0.008628085908038711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H17">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I17">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J17">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N17">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q17">
-        <v>5.98846460061911</v>
+        <v>8.926607852644111</v>
       </c>
       <c r="R17">
-        <v>53.89618140557199</v>
+        <v>80.339470673797</v>
       </c>
       <c r="S17">
-        <v>0.005917646417849114</v>
+        <v>0.005538798479820967</v>
       </c>
       <c r="T17">
-        <v>0.005917646417849115</v>
+        <v>0.005538798479820965</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H18">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I18">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J18">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>16.614382</v>
       </c>
       <c r="N18">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O18">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P18">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q18">
-        <v>8.239897214772668</v>
+        <v>10.49298463404733</v>
       </c>
       <c r="R18">
-        <v>74.159074932954</v>
+        <v>94.43686170642599</v>
       </c>
       <c r="S18">
-        <v>0.008142454116102362</v>
+        <v>0.006510706900004696</v>
       </c>
       <c r="T18">
-        <v>0.008142454116102362</v>
+        <v>0.006510706900004696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H19">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I19">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J19">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N19">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O19">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P19">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q19">
-        <v>21.75602670576378</v>
+        <v>55.48745850783067</v>
       </c>
       <c r="R19">
-        <v>195.804240351874</v>
+        <v>499.387126570476</v>
       </c>
       <c r="S19">
-        <v>0.02149874501866181</v>
+        <v>0.03442896292809228</v>
       </c>
       <c r="T19">
-        <v>0.02149874501866181</v>
+        <v>0.03442896292809226</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H20">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I20">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J20">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N20">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q20">
-        <v>2.942401923178667</v>
+        <v>3.426239228666223</v>
       </c>
       <c r="R20">
-        <v>26.481617308608</v>
+        <v>30.836153057996</v>
       </c>
       <c r="S20">
-        <v>0.002907605765720056</v>
+        <v>0.002125919379960022</v>
       </c>
       <c r="T20">
-        <v>0.002907605765720057</v>
+        <v>0.002125919379960022</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H21">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I21">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J21">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N21">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q21">
-        <v>34.506768317714</v>
+        <v>60.49650729673322</v>
       </c>
       <c r="R21">
-        <v>310.560914859426</v>
+        <v>544.468565670599</v>
       </c>
       <c r="S21">
-        <v>0.0340986993403549</v>
+        <v>0.03753698696984566</v>
       </c>
       <c r="T21">
-        <v>0.03409869934035491</v>
+        <v>0.03753698696984566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H22">
+        <v>1.697065</v>
+      </c>
+      <c r="I22">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J22">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.13421233333333</v>
+      </c>
+      <c r="N22">
+        <v>42.402637</v>
+      </c>
+      <c r="O22">
+        <v>0.06429893302526193</v>
+      </c>
+      <c r="P22">
+        <v>0.06429893302526192</v>
+      </c>
+      <c r="Q22">
+        <v>7.995559017822776</v>
+      </c>
+      <c r="R22">
+        <v>71.96003116040499</v>
+      </c>
+      <c r="S22">
+        <v>0.004961099542433458</v>
+      </c>
+      <c r="T22">
+        <v>0.004961099542433458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H23">
+        <v>1.697065</v>
+      </c>
+      <c r="I23">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J23">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.614382</v>
+      </c>
+      <c r="N23">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.07558164617031606</v>
+      </c>
+      <c r="P23">
+        <v>0.07558164617031604</v>
+      </c>
+      <c r="Q23">
+        <v>9.398562062943329</v>
+      </c>
+      <c r="R23">
+        <v>84.58705856648997</v>
+      </c>
+      <c r="S23">
+        <v>0.005831637518535557</v>
+      </c>
+      <c r="T23">
+        <v>0.005831637518535557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H24">
+        <v>1.697065</v>
+      </c>
+      <c r="I24">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J24">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>87.857732</v>
+      </c>
+      <c r="N24">
+        <v>263.573196</v>
+      </c>
+      <c r="O24">
+        <v>0.3996797481453391</v>
+      </c>
+      <c r="P24">
+        <v>0.399679748145339</v>
+      </c>
+      <c r="Q24">
+        <v>49.70009398552666</v>
+      </c>
+      <c r="R24">
+        <v>447.3008458697399</v>
+      </c>
+      <c r="S24">
+        <v>0.03083800807184054</v>
+      </c>
+      <c r="T24">
+        <v>0.03083800807184053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H25">
+        <v>1.697065</v>
+      </c>
+      <c r="I25">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J25">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.425038666666667</v>
+      </c>
+      <c r="N25">
+        <v>16.275116</v>
+      </c>
+      <c r="O25">
+        <v>0.02467942250059516</v>
+      </c>
+      <c r="P25">
+        <v>0.02467942250059516</v>
+      </c>
+      <c r="Q25">
+        <v>3.068881081615555</v>
+      </c>
+      <c r="R25">
+        <v>27.61992973454</v>
+      </c>
+      <c r="S25">
+        <v>0.001904185122747235</v>
+      </c>
+      <c r="T25">
+        <v>0.001904185122747235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H26">
+        <v>1.697065</v>
+      </c>
+      <c r="I26">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J26">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>95.78895966666666</v>
+      </c>
+      <c r="N26">
+        <v>287.366879</v>
+      </c>
+      <c r="O26">
+        <v>0.4357602501584878</v>
+      </c>
+      <c r="P26">
+        <v>0.4357602501584877</v>
+      </c>
+      <c r="Q26">
+        <v>54.18669694557054</v>
+      </c>
+      <c r="R26">
+        <v>487.6802725101349</v>
+      </c>
+      <c r="S26">
+        <v>0.03362186394014671</v>
+      </c>
+      <c r="T26">
+        <v>0.03362186394014671</v>
       </c>
     </row>
   </sheetData>
